--- a/Unity/Assets/Config/Excel/StartConfig/Release_148/StartProcessConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_148/StartProcessConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_148\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DFBD5C-3A2B-40D7-8A8A-77882CABDD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48E36A2-01F9-48DE-A508-177C2D0F4695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>20101</v>
+        <v>28101</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
